--- a/論文相關/performance/實驗結果/result.xlsx
+++ b/論文相關/performance/實驗結果/result.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Dropbox\黃聖穎-電腦同步\碩論\performance\實驗結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF0E1E6-5FBE-40A3-B9CD-EF3F3A7C2991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123A0A6B-E6C8-486A-9AD0-EE668BC0535D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7584" activeTab="1" xr2:uid="{27141E97-049F-4B67-A58F-61C7406E2EEE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{27141E97-049F-4B67-A58F-61C7406E2EEE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="cut trace" sheetId="3" r:id="rId2"/>
-    <sheet name="other trace" sheetId="2" r:id="rId3"/>
-    <sheet name="無法使用的trace(write hit count=0)" sheetId="4" r:id="rId4"/>
+    <sheet name="報告數據" sheetId="6" r:id="rId2"/>
+    <sheet name="cut trace" sheetId="3" r:id="rId3"/>
+    <sheet name="other trace" sheetId="2" r:id="rId4"/>
+    <sheet name="無法使用的trace" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="47">
   <si>
     <t>學長程式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,14 +60,6 @@
   </si>
   <si>
     <t>&gt;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>run1_asim_usr20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usr2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -103,10 +96,6 @@
   </si>
   <si>
     <t>run1_asim_usr22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usr2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -188,14 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>can use trace(because write hit count==0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>run1_asim_usr20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>running</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,15 +185,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>run1_md7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -220,7 +193,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>usr20</t>
+    <t>user_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish experiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI+hint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,7 +213,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_2</t>
+    <t>user1 or run1_asim_usr20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can't use trace(case1: write hit count==0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can't use trace(case 2: kick count==0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case 2 worse than case 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user2all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run1_fs10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>180</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>萬</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ug3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>萬</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +341,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +351,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -356,12 +409,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -496,11 +563,8 @@
               <c:f>工作表1!$B$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>usr20</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>usr2</c:v>
+                  <c:v>ug3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>iozone</c:v>
@@ -520,20 +584,14 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3460999999999999E-2</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.14569799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.2784000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.103577</c:v>
+                  <c:v>0.13946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,11 +654,8 @@
               <c:f>工作表1!$B$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>usr20</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>usr2</c:v>
+                  <c:v>ug3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>iozone</c:v>
@@ -620,20 +675,17 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.6160000000000003E-3</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1401999999999999E-2</c:v>
+                  <c:v>2.6120000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1346999999999994E-2</c:v>
+                  <c:v>0.14909900000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.3958000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.110652</c:v>
+                  <c:v>0.13682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,11 +748,8 @@
               <c:f>工作表1!$B$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>usr20</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>usr2</c:v>
+                  <c:v>ug3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>iozone</c:v>
@@ -720,17 +769,17 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.1749999999999999E-2</c:v>
+                <c:pt idx="1">
+                  <c:v>3.13E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4486E-2</c:v>
+                  <c:v>0.131188</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.7319000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6203000000000002E-2</c:v>
+                  <c:v>0.13682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -793,11 +842,8 @@
               <c:f>工作表1!$B$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>usr20</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>usr2</c:v>
+                  <c:v>ug3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>iozone</c:v>
@@ -884,11 +930,8 @@
               <c:f>工作表1!$B$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>usr20</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>usr2</c:v>
+                  <c:v>ug3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>iozone</c:v>
@@ -908,6 +951,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>0.16052900000000001</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>6.6952999999999999E-2</c:v>
                 </c:pt>
@@ -1061,9 +1107,9 @@
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-TW"/>
@@ -1224,11 +1270,8 @@
               <c:f>工作表1!$B$11:$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>usr20</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>usr2</c:v>
+                  <c:v>ug3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>iozone</c:v>
@@ -1248,20 +1291,14 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.44400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12670500000000001</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38900000000000001</c:v>
+                  <c:v>0.37679400000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.18149199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16925200000000001</c:v>
+                  <c:v>9.7920999999999994E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,11 +1338,8 @@
               <c:f>工作表1!$B$11:$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>usr20</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>usr2</c:v>
+                  <c:v>ug3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>iozone</c:v>
@@ -1325,20 +1359,17 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.14194899999999999</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34755599999999998</c:v>
+                  <c:v>0.57301100000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60149600000000003</c:v>
+                  <c:v>0.59610700000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.47809299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38897900000000002</c:v>
+                  <c:v>0.18188099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1378,11 +1409,8 @@
               <c:f>工作表1!$B$11:$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>usr20</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>usr2</c:v>
+                  <c:v>ug3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>iozone</c:v>
@@ -1402,17 +1430,17 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.56904699999999997</c:v>
+                <c:pt idx="1">
+                  <c:v>0.62666999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66590199999999999</c:v>
+                  <c:v>0.617641</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.50531599999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39704299999999998</c:v>
+                  <c:v>0.19631999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1452,11 +1480,8 @@
               <c:f>工作表1!$B$11:$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>usr20</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>usr2</c:v>
+                  <c:v>ug3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>iozone</c:v>
@@ -1520,11 +1545,8 @@
               <c:f>工作表1!$B$11:$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>usr20</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>usr2</c:v>
+                  <c:v>ug3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>iozone</c:v>
@@ -1544,6 +1566,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>0.37597199999999997</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>0.186695</c:v>
                 </c:pt>
@@ -1706,9 +1731,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-TW"/>
@@ -1793,6 +1818,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4184637386237377"/>
+          <c:y val="1.845928174230841E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1921,8 +1954,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.7148396947819039E-2"/>
-                  <c:y val="-9.4348360280266511E-2"/>
+                  <c:x val="-2.4107521504608972E-2"/>
+                  <c:y val="-9.4348360280266608E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2020,11 +2053,8 @@
               <c:f>工作表1!$B$19:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>usr20</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>usr2</c:v>
+                  <c:v>ug3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>iozone</c:v>
@@ -2044,20 +2074,14 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>13397</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14570</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>265596</c:v>
+                  <c:v>96187</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>38871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80158</c:v>
+                  <c:v>4475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2139,8 +2163,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.6881720430107527E-2"/>
-                  <c:y val="-6.7214095825886638E-2"/>
+                  <c:x val="-1.0522371660510304E-2"/>
+                  <c:y val="-7.3347161418279877E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2259,11 +2283,8 @@
               <c:f>工作表1!$B$19:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>usr20</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>usr2</c:v>
+                  <c:v>ug3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>iozone</c:v>
@@ -2283,20 +2304,17 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>10256</c:v>
+                  <c:v>6884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>771157</c:v>
+                  <c:v>197921</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69324</c:v>
+                  <c:v>3694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2378,8 +2396,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.8225645690621974E-2"/>
-                  <c:y val="-4.2032804440975069E-2"/>
+                  <c:x val="1.0733179581069579E-2"/>
+                  <c:y val="-0.1270381716496426"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2399,8 +2417,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.0302307626969865E-3"/>
-                  <c:y val="-6.365252736870726E-2"/>
+                  <c:x val="-3.1311362446089768E-3"/>
+                  <c:y val="-7.8078698918062156E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2498,11 +2516,8 @@
               <c:f>工作表1!$B$19:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>usr20</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>usr2</c:v>
+                  <c:v>ug3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>iozone</c:v>
@@ -2522,17 +2537,17 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7494</c:v>
+                <c:pt idx="1">
+                  <c:v>4581</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>546822</c:v>
+                  <c:v>144904</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59515</c:v>
+                  <c:v>3785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2568,6 +2583,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.143335650570244E-2"/>
+                  <c:y val="-6.2914385181968666E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-68DD-4576-BC67-0165C8070C0A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
@@ -2650,11 +2686,8 @@
               <c:f>工作表1!$B$19:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>usr20</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>usr2</c:v>
+                  <c:v>ug3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>iozone</c:v>
@@ -2714,6 +2747,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.6081750886420136E-2"/>
+                  <c:y val="-0.17001061311332352"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-68DD-4576-BC67-0165C8070C0A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
@@ -2796,11 +2850,8 @@
               <c:f>工作表1!$B$19:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>usr20</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>usr2</c:v>
+                  <c:v>ug3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>iozone</c:v>
@@ -2820,6 +2871,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>103651</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>47096</c:v>
                 </c:pt>
@@ -2982,9 +3036,2604 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>hit ratio</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41558910204884419"/>
+          <c:y val="6.8496475397899804E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>報告數據!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>學長程式</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.7223093119310096E-2"/>
+                  <c:y val="-2.7398677579658793E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-AD9D-4EAE-8EDB-8ECF3F8ED3B0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.000_);[Red]\(#,##0.000\)" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>報告數據!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>user2all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ug3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iozone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P_2475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Financial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>報告數據!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>0.14569799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2784000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD9D-4EAE-8EDB-8ECF3F8ED3B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>報告數據!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9402379322545723E-3"/>
+                  <c:y val="-1.7680554096457524E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0890310403338396E-16"/>
+                  <c:y val="-4.7494064800104284E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-AD9D-4EAE-8EDB-8ECF3F8ED3B0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.000_);[Red]\(#,##0.000\)" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>報告數據!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>user2all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ug3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iozone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P_2475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Financial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>報告數據!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>0.15540300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4087000000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD9D-4EAE-8EDB-8ECF3F8ED3B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>報告數據!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AI+hint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.3462141390291637E-2"/>
+                  <c:y val="-3.4303925345116476E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.9402379322546269E-3"/>
+                  <c:y val="-9.4988129600208429E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-AD9D-4EAE-8EDB-8ECF3F8ED3B0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.000_);[Red]\(#,##0.000\)" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>報告數據!$B$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>user2all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ug3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iozone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P_2475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Financial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>報告數據!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>0.16052900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6952999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-AD9D-4EAE-8EDB-8ECF3F8ED3B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1188059968"/>
+        <c:axId val="1253929232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1188059968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1253929232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1253929232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1188059968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600"/>
+              <a:t>average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" baseline="0"/>
+              <a:t> response time</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>報告數據!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>學長程式</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0330892397727402E-2"/>
+                  <c:y val="-1.5294650846404372E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-E0BA-488E-BFE3-B87F30BECE3D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3685125834224635E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-E0BA-488E-BFE3-B87F30BECE3D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.000_);[Red]\(#,##0.000\)" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>報告數據!$B$9:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>user2all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ug3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iozone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P_2475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Financial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>報告數據!$B$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>0.37679400000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18149199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7920999999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0BA-488E-BFE3-B87F30BECE3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>報告數據!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.9606407292780247E-3"/>
+                  <c:y val="-6.6276820334418951E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-E0BA-488E-BFE3-B87F30BECE3D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-8.1571471180823363E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-E0BA-488E-BFE3-B87F30BECE3D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.000_);[Red]\(#,##0.000\)" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>報告數據!$B$9:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>user2all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ug3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iozone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P_2475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Financial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>報告數據!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>0.39788499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19606000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E0BA-488E-BFE3-B87F30BECE3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>報告數據!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AI+hint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5527688751336953E-2"/>
+                  <c:y val="5.0982169488014576E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-E0BA-488E-BFE3-B87F30BECE3D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.9606407292780683E-2"/>
+                  <c:y val="-5.0982169488014576E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-E0BA-488E-BFE3-B87F30BECE3D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.000_);[Red]\(#,##0.000\)" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>報告數據!$B$9:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>user2all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ug3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iozone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P_2475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Financial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>報告數據!$B$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>0.37597199999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.186695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E0BA-488E-BFE3-B87F30BECE3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1269682688"/>
+        <c:axId val="1192432080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1269682688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1192432080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1192432080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269682688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600"/>
+              <a:t>kick block count</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42336399182663109"/>
+          <c:y val="6.6383267913411E-4"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>報告數據!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>學長程式</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0737392954061223E-2"/>
+                  <c:y val="-0.37226253302181184"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-8859-44AF-B52B-C23863EB100F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3763020599510072E-3"/>
+                  <c:y val="-0.17579064059363336"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8859-44AF-B52B-C23863EB100F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8743316267909618E-2"/>
+                  <c:y val="-8.2754502248682631E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-8859-44AF-B52B-C23863EB100F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4107521504608972E-2"/>
+                  <c:y val="-9.4348360280266608E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8859-44AF-B52B-C23863EB100F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3520716625380883E-2"/>
+                  <c:y val="-0.11227236599033759"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-8859-44AF-B52B-C23863EB100F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>報告數據!$B$14:$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>user2all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ug3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iozone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P_2475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Financial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>報告數據!$B$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>96187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8859-44AF-B52B-C23863EB100F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>報告數據!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.3763020599509829E-3"/>
+                  <c:y val="-0.30504846455954027"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-8859-44AF-B52B-C23863EB100F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.0645161290322578E-3"/>
+                  <c:y val="-0.10340630127059484"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-8859-44AF-B52B-C23863EB100F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.052231057176607E-2"/>
+                  <c:y val="-1.9588542596020008E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-8859-44AF-B52B-C23863EB100F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1505379104410176E-2"/>
+                  <c:y val="-0.1928691759128762"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-8859-44AF-B52B-C23863EB100F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8373032701792143E-3"/>
+                  <c:y val="-0.31203180670998093"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-8859-44AF-B52B-C23863EB100F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>報告數據!$B$14:$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>user2all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ug3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iozone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P_2475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Financial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>報告數據!$B$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>104374</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-8859-44AF-B52B-C23863EB100F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>報告數據!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AI+hint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.4193570535971716E-2"/>
+                  <c:y val="-0.24300470905590493"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-8859-44AF-B52B-C23863EB100F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.2258064516129031E-2"/>
+                  <c:y val="-8.7895356080005538E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-8859-44AF-B52B-C23863EB100F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0533825672839179E-2"/>
+                  <c:y val="-3.2749162198173185E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-8859-44AF-B52B-C23863EB100F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1311362446089768E-3"/>
+                  <c:y val="-7.8078698918062156E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-8859-44AF-B52B-C23863EB100F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.4755457914425041E-2"/>
+                  <c:y val="-0.261935987490164"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-8859-44AF-B52B-C23863EB100F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>報告數據!$B$14:$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>user2all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ug3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iozone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P_2475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Financial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>報告數據!$B$18:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>103651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-8859-44AF-B52B-C23863EB100F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="854464208"/>
+        <c:axId val="1253952528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="854464208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1253952528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1253952528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="854464208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-TW"/>
@@ -3148,6 +5797,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
@@ -4121,6 +6890,1481 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4701,14 +8945,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>351978</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>120350</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>409014</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>2577</xdr:rowOff>
+      <xdr:rowOff>2578</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4720,6 +8964,125 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>107539</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>116262</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146535</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92EEDC76-D3DA-4737-BA92-325A901F7672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>564497</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>463084</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>24091</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9195420-4919-497A-AF85-67EE7E9CAC32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561528</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>36739</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA379B0-E7A9-40E8-A632-2FBFFDE69DDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5035,8 +9398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60C5ECE-5061-4071-97AE-743E5E4AF734}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5052,7 +9415,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -5061,84 +9424,77 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7.3460999999999999E-2</v>
-      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.14569799999999999</v>
       </c>
       <c r="E4" s="1">
         <v>6.2784000000000006E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>0.103577</v>
+        <v>0.13946</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8">
-        <v>5.6160000000000003E-3</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="1">
-        <v>3.1401999999999999E-2</v>
+        <v>2.6120000000000002E-3</v>
       </c>
       <c r="D5" s="1">
-        <v>7.1346999999999994E-2</v>
+        <v>0.14909900000000001</v>
       </c>
       <c r="E5" s="1">
         <v>6.3958000000000001E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>0.110652</v>
+        <v>0.13682</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
-        <v>2.1749999999999999E-2</v>
+      <c r="B6" s="8"/>
+      <c r="C6" s="1">
+        <v>3.13E-3</v>
       </c>
       <c r="D6" s="1">
-        <v>5.4486E-2</v>
+        <v>0.131188</v>
       </c>
       <c r="E6" s="1">
         <v>5.7319000000000002E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>8.6203000000000002E-2</v>
+        <v>0.13682</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.15540300000000001</v>
       </c>
       <c r="E7" s="1">
@@ -5147,7 +9503,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.16052900000000001</v>
       </c>
       <c r="E8" s="1">
         <v>6.6952999999999999E-2</v>
@@ -5162,84 +9521,77 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.12670500000000001</v>
-      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="1">
-        <v>0.38900000000000001</v>
+        <v>0.37679400000000002</v>
       </c>
       <c r="E12" s="1">
         <v>0.18149199999999999</v>
       </c>
       <c r="F12" s="1">
-        <v>0.16925200000000001</v>
+        <v>9.7920999999999994E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="8">
-        <v>0.14194899999999999</v>
-      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="1">
-        <v>0.34755599999999998</v>
+        <v>0.57301100000000005</v>
       </c>
       <c r="D13" s="1">
-        <v>0.60149600000000003</v>
+        <v>0.59610700000000005</v>
       </c>
       <c r="E13" s="1">
         <v>0.47809299999999999</v>
       </c>
       <c r="F13" s="1">
-        <v>0.38897900000000002</v>
+        <v>0.18188099999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.56904699999999997</v>
+      <c r="B14" s="8"/>
+      <c r="C14" s="1">
+        <v>0.62666999999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>0.66590199999999999</v>
+        <v>0.617641</v>
       </c>
       <c r="E14" s="1">
         <v>0.50531599999999999</v>
       </c>
       <c r="F14" s="1">
-        <v>0.39704299999999998</v>
+        <v>0.19631999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
         <v>0.39788499999999999</v>
       </c>
       <c r="E15" s="1">
@@ -5248,7 +9600,10 @@
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.37597199999999997</v>
       </c>
       <c r="E16" s="1">
         <v>0.186695</v>
@@ -5263,84 +9618,77 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="1">
-        <v>13397</v>
-      </c>
-      <c r="C20" s="1">
-        <v>14570</v>
-      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="1">
-        <v>265596</v>
+        <v>96187</v>
       </c>
       <c r="E20" s="1">
         <v>38871</v>
       </c>
       <c r="F20" s="1">
-        <v>80158</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="8">
-        <v>0</v>
-      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="1">
-        <v>10256</v>
+        <v>6884</v>
       </c>
       <c r="D21" s="1">
-        <v>771157</v>
+        <v>197921</v>
       </c>
       <c r="E21" s="1">
         <v>42136</v>
       </c>
       <c r="F21" s="1">
-        <v>69324</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="1">
-        <v>7494</v>
+      <c r="B22" s="8"/>
+      <c r="C22" s="1">
+        <v>4581</v>
       </c>
       <c r="D22" s="1">
-        <v>546822</v>
+        <v>144904</v>
       </c>
       <c r="E22" s="1">
         <v>16114</v>
       </c>
       <c r="F22" s="1">
-        <v>59515</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="8">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1">
         <v>104374</v>
       </c>
       <c r="E23" s="1">
@@ -5349,7 +9697,10 @@
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D24" s="1">
+        <v>103651</v>
       </c>
       <c r="E24" s="1">
         <v>47096</v>
@@ -5364,11 +9715,238 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2901C12-5CAF-4FBE-9F30-EAD1A5457892}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
+        <v>0.14569799999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.2784000000000006E-2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.13946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.15540300000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.4087000000000005E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.16052900000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.6952999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>0.37679400000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.18149199999999999</v>
+      </c>
+      <c r="F10" s="8">
+        <v>9.7920999999999994E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.39788499999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.19606000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.37597199999999997</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.186695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
+        <v>96187</v>
+      </c>
+      <c r="E16" s="1">
+        <v>38871</v>
+      </c>
+      <c r="F16" s="8">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8">
+        <v>104374</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="8">
+        <v>103651</v>
+      </c>
+      <c r="E18" s="1">
+        <v>47096</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="D24" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742EE209-7BE1-4455-B389-E9F9197CFCBA}">
-  <dimension ref="B1:E12"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -5378,15 +9956,23 @@
     <col min="3" max="3" width="42.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.21875" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="4"/>
+    <col min="6" max="6" width="6.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="C1" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
@@ -5394,97 +9980,112 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5494,12 +10095,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C237B2F9-E907-4C28-A3C5-C208E9C3B0B1}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A15" sqref="A14:A15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5514,10 +10115,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -5536,7 +10137,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -5545,7 +10146,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
@@ -5556,22 +10157,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3">
-        <v>3.6455000000000001E-2</v>
+        <v>6.0910000000000001E-3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3">
-        <v>4.4799999999999996E-3</v>
+        <v>2.5240000000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -5579,49 +10174,41 @@
         <v>18</v>
       </c>
       <c r="C5" s="3">
-        <v>6.0910000000000001E-3</v>
+        <v>1.3470000000000001E-3</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="3">
-        <v>2.5240000000000002E-3</v>
+        <v>3.3984E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3">
-        <v>1.3470000000000001E-3</v>
+        <v>4.8050000000000002E-3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3">
-        <v>3.3984E-2</v>
+        <v>2.2950000000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6.4199999999999999E-4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4.8050000000000002E-3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2.2950000000000002E-3</v>
+        <v>43</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.3316999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -5629,7 +10216,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -5648,7 +10235,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -5657,7 +10244,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>7</v>
@@ -5668,22 +10255,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G13" s="3">
-        <v>0.14197000000000001</v>
+        <v>0.106598</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -5691,49 +10272,41 @@
         <v>18</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>13608</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="3">
-        <v>0.106598</v>
+        <v>0.48162199999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3">
-        <v>13608</v>
+        <v>941</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="3">
-        <v>0.48162199999999999</v>
+        <v>0.22816900000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="C16" s="3">
+        <v>16213</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="3">
-        <v>941</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.22816900000000001</v>
+        <v>43</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.485622</v>
       </c>
     </row>
   </sheetData>
@@ -5743,47 +10316,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DAC08-9A5A-49DB-B68C-2768068D5433}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>31</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>42</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
